--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Signature_JS.xlsx
@@ -365,28 +365,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT299-0006
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_Result=cancel
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
 validate_Text_Exists=VT299-0011
 };
 validate4
@@ -1265,24 +1243,6 @@
 validate_isIconDisplayed(true,inlinesignature_view_xpath);</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0034
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(signature_page2_link);
@@ -1502,6 +1462,46 @@
 validate_Result=Status:
 validate_Result=ok
 validate_Result=ImageUri:
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0006
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_Result=cancel
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0034
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
 };</t>
   </si>
 </sst>
@@ -2094,7 +2094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2119,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -2161,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="2" t="s">
@@ -2215,10 +2217,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2236,13 +2238,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -2295,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="17"/>
@@ -2321,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="21"/>
     </row>
@@ -2340,16 +2342,16 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2373,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2403,7 +2405,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -2421,16 +2423,16 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2448,16 +2450,16 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="23">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="14"/>
@@ -2475,16 +2477,16 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="14"/>
@@ -2502,16 +2504,16 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="23">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="14"/>
@@ -2529,16 +2531,16 @@
         <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="23">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="14"/>
@@ -2556,16 +2558,16 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="14"/>
@@ -2592,7 +2594,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="14"/>
@@ -2619,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="14"/>
@@ -2637,16 +2639,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="23">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="14"/>
@@ -2664,16 +2666,16 @@
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="14"/>
@@ -2691,16 +2693,16 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" s="23">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="14"/>
@@ -2727,7 +2729,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="14"/>
@@ -2745,16 +2747,16 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="14"/>
@@ -2778,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="14"/>
@@ -2799,16 +2801,16 @@
         <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="14"/>
@@ -2826,16 +2828,16 @@
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="14"/>
@@ -2853,16 +2855,16 @@
         <v>9</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="23">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="14"/>
@@ -2880,16 +2882,16 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2907,16 +2909,16 @@
         <v>9</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="23">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="14"/>
@@ -2934,16 +2936,16 @@
         <v>9</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="24">
         <v>1</v>
       </c>
       <c r="G31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="I31" s="21"/>
     </row>
@@ -2965,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I32" s="21"/>
     </row>
@@ -2990,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I33" s="21"/>
     </row>
@@ -3018,7 +3020,7 @@
         <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="21"/>
     </row>
@@ -3043,7 +3045,7 @@
         <v>37</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" s="21"/>
     </row>
@@ -3068,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I36" s="21"/>
     </row>
@@ -3093,7 +3095,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="147" thickBot="1">
@@ -3108,16 +3110,16 @@
         <v>9</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="24">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Signature_JS.xlsx
@@ -529,6 +529,40 @@
     <t>Call takeFullScreen with default path</t>
   </si>
   <si>
+    <t>Call setVectorCallback with capture and dataURI</t>
+  </si>
+  <si>
+    <t>Call setVectorCallback with anonymous callback</t>
+  </si>
+  <si>
+    <t>Call setVectorCallback with takeFullScreen</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen with left,top,width,height and border</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0024_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT299-0024);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>Call show with left as 10, top as 50, width as 180 and height as 120, border as false and outputFormat as dataURI</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -539,43 +573,870 @@
 };
 validate3
 {
-validate_Text_Exists=VT299-0029
+validate_Text_Exists=VT299-0022
 };
 validate4
 {
-validate_Screenshot=VT299-0029
+validate_Screenshot=VT299-0022
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=data:image/png;base64
+};</t>
+  </si>
+  <si>
+    <t>Call show with left as 20, top as 70, width as 250 and height as 200, border as false and callback</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0021
+};
+validate4
+{
+validate_Screenshot=VT299-0021
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0021.bmp
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0020_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT299-0020);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0020
+};
+validate4
+{
+validate_Screenshot=VT299-0020
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0020.png
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0008
+};
+validate4
+{
+validate_Screenshot=VT299-0008
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0008.png
+};</t>
+  </si>
+  <si>
+    <t>Call capture with callback as function and returned status OK</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen with callback as anonymous function</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0004_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT299-0004);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0010
+};
+validate4
+{
+validate_Screenshot=VT299-0010
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0010.png
+};</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen with bgColor as #0000FF(RGB), penColor as #FFFFFF00 and callback</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0012_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT299-0012);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen with bgColor as #FFFFFF00 (ARGB), penColor as #FF00FF(RGB), penWidth as 1 and callback</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0013_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT299-0013);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen after setting bgColor as #FF87CEEB, penColor as #FF8B0000 and penWidth as 5</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0014_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT299-0014);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen after setting compressionFormat as png, fileName as VT299-016 and outputFormat as Image</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen with compressionFormat as bmp, fileName as VT299-017 and outputFormat as Image</t>
+  </si>
+  <si>
+    <t>Call show and then call hide and then call show again</t>
+  </si>
+  <si>
+    <t>Automatable</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0024
+};
+validate4
+{
+validate_Screenshot=VT299-0024
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0024.jpg
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0012
+};
+validate4
+{
+validate_Screenshot=VT299-0012
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0012.png
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0013
+};
+validate4
+{
+validate_Screenshot=VT299-0013
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0013.png
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0014
+};
+validate4
+{
+validate_Screenshot=VT299-0014
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0014.png
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0006_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(1);
+press_Key(Home);
+validate4;
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+wait(1);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0002
+};
+validate4
+{
+validate_Result=Status:
+validate_Result=cancel
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0002_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(signature_cancel_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0007
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0007_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate_isIconDisplayed(true,signature_view_xpath);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+validate_isIconDisplayed(true,signature_view_xpath);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0015_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0015
+};
+validate4
+{
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0015.jpg
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0016_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>Call takeFullScreen with setting compressionFormat as jpg, fileName as VT299-0015 and outputFormat as Image</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0016
+};
+validate4
+{
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0016.png
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0017_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0017
+};
+validate4
+{
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0017.bmp
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0031_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate_isIconDisplayed(true,inlinesignature_view_xpath);
+wait(10);
+validate_isIconDisplayed(false,inlinesignature_view_xpath);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0031
+};
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0034_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate_isIconDisplayed(true,inlinesignature_view_xpath);
+press_Key(Home);
+validate4;
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+validate_isIconDisplayed(true,inlinesignature_view_xpath);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0035_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+validate_isIconDisplayed(true,inlinesignature_view_xpath);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+validate_isIconDisplayed(true,inlinesignature_view_xpath);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0035
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0040
+};
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0040_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(22);
+validate_isIconDisplayed(true,signature_view_xpath);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0021_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+TakeScreenshot(VT299-0021);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0022_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+TakeScreenshot(VT299-0022);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0010_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+TakeScreenshot(VT299-0010);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page1_link);
+validate2;
+SelectTestToRun(VT299_0008_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+TakeScreenshot(VT299-0008);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0025_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+validate4;
+isTextPresent(sigvector_xpath);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0025
+};
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0026_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+validate4;
+isTextPresent(sigvector_xpath);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0026
+};
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0030_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
+SwitchApp(WEBVIEW);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0030
+};
+validate4
+{
 validate_Result=Status:
 validate_Result=ok
 validate_Result=ImageUri:
 };</t>
   </si>
   <si>
-    <t>Call setVectorCallback with capture and dataURI</t>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0006
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_Result=cancel
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0034
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT299-0028
+};
+validate4
+{
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=data:image/png;base64
+}
+</t>
   </si>
   <si>
     <t>wait(3);
 validate1;
 link_Click(signature_page2_link);
 validate2;
-SelectTestToRun(VT299_0029_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
+SelectTestToRun(VT299_0028_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
 SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeScreenshot(VT299-0029);
+DrawSignature(inlinesignature_view_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;
+isTextPresent(sigvector_xpath);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_page2_link);
+validate2;
+SelectTestToRun(VT299_0027_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(inlinesignature_view_xpath);
 ClickNativeIcon(signature_ok_xpath);
-wait(2);
 SwitchApp(WEBVIEW);
 wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>Call setVectorCallback with anonymous callback</t>
-  </si>
-  <si>
-    <t>Call setVectorCallback with takeFullScreen</t>
+validate4;
+isTextPresent(sigvector_xpath);</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -592,7 +1453,6 @@
 };
 validate4
 {
-validate_Screenshot=VT299-0027
 validate_Result=Status:
 validate_Result=ok
 validate_Result=ImageUri:
@@ -601,21 +1461,17 @@
 </t>
   </si>
   <si>
-    <t>Call takeFullScreen with left,top,width,height and border</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(signature_page2_link);
 validate2;
-SelectTestToRun(VT299_0024_string);
+SelectTestToRun(VT299_0029_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(2);
 SwitchApp(NATIVE_APP);
 DrawSignature(signature_view_xpath);
-TakeScreenshot(VT299-0024);
 ClickNativeIcon(signature_ok_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
@@ -623,9 +1479,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>Call show with left as 10, top as 50, width as 180 and height as 120, border as false and outputFormat as dataURI</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -636,872 +1489,13 @@
 };
 validate3
 {
-validate_Text_Exists=VT299-0022
+validate_Text_Exists=VT299-0029
 };
 validate4
 {
-validate_Screenshot=VT299-0022
 validate_Result=Status:
 validate_Result=ok
 validate_Result=ImageUri:
-validate_Result=data:image/png;base64
-};</t>
-  </si>
-  <si>
-    <t>Call show with left as 20, top as 70, width as 250 and height as 200, border as false and callback</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0021
-};
-validate4
-{
-validate_Screenshot=VT299-0021
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0021.bmp
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0020_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT299-0020);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0020
-};
-validate4
-{
-validate_Screenshot=VT299-0020
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0020.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0008
-};
-validate4
-{
-validate_Screenshot=VT299-0008
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0008.png
-};</t>
-  </si>
-  <si>
-    <t>Call capture with callback as function and returned status OK</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with callback as anonymous function</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0004_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeScreenshot(VT299-0004);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0010
-};
-validate4
-{
-validate_Screenshot=VT299-0010
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0010.png
-};</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with bgColor as #0000FF(RGB), penColor as #FFFFFF00 and callback</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0012_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeScreenshot(VT299-0012);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with bgColor as #FFFFFF00 (ARGB), penColor as #FF00FF(RGB), penWidth as 1 and callback</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0013_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeScreenshot(VT299-0013);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen after setting bgColor as #FF87CEEB, penColor as #FF8B0000 and penWidth as 5</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0014_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeScreenshot(VT299-0014);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen after setting compressionFormat as png, fileName as VT299-016 and outputFormat as Image</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with compressionFormat as bmp, fileName as VT299-017 and outputFormat as Image</t>
-  </si>
-  <si>
-    <t>Call show and then call hide and then call show again</t>
-  </si>
-  <si>
-    <t>Automatable</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0024
-};
-validate4
-{
-validate_Screenshot=VT299-0024
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0024.jpg
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0012
-};
-validate4
-{
-validate_Screenshot=VT299-0012
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0012.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0013
-};
-validate4
-{
-validate_Screenshot=VT299-0013
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0013.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0014
-};
-validate4
-{
-validate_Screenshot=VT299-0014
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0014.png
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0028
-};
-validate4
-{
-validate_Screenshot=VT299-0028
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=data:image/png;base64
-}
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0028_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeScreenshot(VT299-0028);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;
-isTextPresent(sigvector_xpath);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0027_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeScreenshot(VT299-0027);
-ClickNativeIcon(signature_ok_xpath);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;
-isTextPresent(sigvector_xpath);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0006_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(1);
-press_Key(Home);
-validate4;
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-wait(1);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0002
-};
-validate4
-{
-validate_Result=Status:
-validate_Result=cancel
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0002_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(signature_cancel_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0007
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0007_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate_isIconDisplayed(true,signature_view_xpath);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-validate_isIconDisplayed(true,signature_view_xpath);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0015_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0015
-};
-validate4
-{
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0015.jpg
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0016_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with setting compressionFormat as jpg, fileName as VT299-0015 and outputFormat as Image</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0016
-};
-validate4
-{
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0016.png
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0017_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0017
-};
-validate4
-{
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT299-0017.bmp
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0031_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate_isIconDisplayed(true,inlinesignature_view_xpath);
-wait(10);
-validate_isIconDisplayed(false,inlinesignature_view_xpath);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0031
-};
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0034_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate_isIconDisplayed(true,inlinesignature_view_xpath);
-press_Key(Home);
-validate4;
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-validate_isIconDisplayed(true,inlinesignature_view_xpath);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0035_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate_isIconDisplayed(true,inlinesignature_view_xpath);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-validate_isIconDisplayed(true,inlinesignature_view_xpath);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0035
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0040
-};
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0040_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(22);
-validate_isIconDisplayed(true,signature_view_xpath);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0021_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeScreenshot(VT299-0021);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0022_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeScreenshot(VT299-0022);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0010_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeScreenshot(VT299-0010);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page1_link);
-validate2;
-SelectTestToRun(VT299_0008_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-TakeScreenshot(VT299-0008);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0025_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-SwitchApp(WEBVIEW);
-validate4;
-isTextPresent(sigvector_xpath);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0025
-};
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0026_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-SwitchApp(WEBVIEW);
-validate4;
-isTextPresent(sigvector_xpath);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0026
-};
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_page2_link);
-validate2;
-SelectTestToRun(VT299_0030_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-SwitchApp(WEBVIEW);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0030
-};
-validate4
-{
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0006
-};
-validate4
-{
-validate_AppMinimized=com.symbol.enterprisebrowser
-};
-validate5
-{
-validate_Result=cancel
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT299-0034
-};
-validate4
-{
-validate_AppMinimized=com.symbol.enterprisebrowser
 };</t>
   </si>
 </sst>
@@ -2094,9 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2121,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -2163,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="2" t="s">
@@ -2217,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2238,13 +2230,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -2297,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="17"/>
@@ -2323,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I8" s="21"/>
     </row>
@@ -2342,16 +2334,16 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2375,10 +2367,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2423,16 +2415,16 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="23">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2450,16 +2442,16 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="14"/>
@@ -2477,16 +2469,16 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="23">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="14"/>
@@ -2504,16 +2496,16 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F15" s="23">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="14"/>
@@ -2531,16 +2523,16 @@
         <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="23">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="14"/>
@@ -2558,16 +2550,16 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="14"/>
@@ -2639,16 +2631,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="14"/>
@@ -2666,16 +2658,16 @@
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F21" s="23">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="14"/>
@@ -2693,16 +2685,16 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F22" s="23">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="14"/>
@@ -2747,16 +2739,16 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24" s="23">
         <v>1</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="14"/>
@@ -2780,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="14"/>
@@ -2801,22 +2793,22 @@
         <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="248.25" thickBot="1">
+    <row r="27" spans="1:11" ht="237" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2828,22 +2820,22 @@
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="23">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="237" thickBot="1">
+    <row r="28" spans="1:11" ht="225.75" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2855,22 +2847,22 @@
         <v>9</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="23">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="214.5" thickBot="1">
+    <row r="29" spans="1:11" ht="203.25" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2888,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2915,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="14"/>
@@ -2936,16 +2928,16 @@
         <v>9</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="24">
         <v>1</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I31" s="21"/>
     </row>
@@ -2967,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I32" s="21"/>
     </row>
@@ -2992,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I33" s="21"/>
     </row>
@@ -3116,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
